--- a/testCases/DMP.xlsx
+++ b/testCases/DMP.xlsx
@@ -674,7 +674,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -953,7 +953,7 @@
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/testCases/DMP.xlsx
+++ b/testCases/DMP.xlsx
@@ -90,10 +90,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>data.password=${gen_md5(Qsq522439539)}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>0 = code;成功 = msg;1 in data.org_id</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -125,99 +121,102 @@
     <t>No</t>
   </si>
   <si>
+    <t>0 = code</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apicm/Page/Campaign/Templet/getTemplets</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm_host</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>headers.token=$token</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = code</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apicm/Page/DmpTmpl/DmpTmpl/getList</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>getList</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apicm/Page/DmpTmpl/DmpTmpl/getMediaList</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>getMediaList</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>getTemplets</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>getRateByMedia</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apicm/Page/DmpTmpl/DmpTmpl/getRateByMedia</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apicm/Page/DmpTmpl/DmpTmpl/getTags</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>headers.token=$token</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apicm/Page/DmpTmpl/DmpTmpl/create</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>getIntersection</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>create</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>getTags</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apicm/Page/DmpTmpl/DmpTmpl/getIntersection</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>headers.token=$token</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm_host</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>json.name=test</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>headers.token=$token</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>data.username=$username;data.password=$password;data.domain=$am_host</t>
+  </si>
+  <si>
     <t>token=data.token</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 = code</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/apicm/Page/Campaign/Templet/getTemplets</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cm_host</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>headers.token=$token</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 = code</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/apicm/Page/DmpTmpl/DmpTmpl/getList</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>getList</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/apicm/Page/DmpTmpl/DmpTmpl/getMediaList</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>getMediaList</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>getTemplets</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>getRateByMedia</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/apicm/Page/DmpTmpl/DmpTmpl/getRateByMedia</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/apicm/Page/DmpTmpl/DmpTmpl/getTags</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>headers.token=$token</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/apicm/Page/DmpTmpl/DmpTmpl/create</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>getIntersection</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>create</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>getTags</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/apicm/Page/DmpTmpl/DmpTmpl/getIntersection</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>headers.token=$token</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cm_host</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>json.name=test</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>headers.token=$token</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -673,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -683,8 +682,8 @@
     <col min="2" max="2" width="21.25" customWidth="1"/>
     <col min="3" max="3" width="46.33203125" customWidth="1"/>
     <col min="5" max="5" width="22.4140625" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1"/>
-    <col min="7" max="7" width="29.25" customWidth="1"/>
+    <col min="6" max="6" width="70.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.58203125" customWidth="1"/>
     <col min="8" max="8" width="48.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -693,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -904,22 +903,22 @@
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="9"/>
@@ -928,7 +927,7 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -936,20 +935,20 @@
         <v>1</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9" t="s">
@@ -961,20 +960,20 @@
         <v>2</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9" t="s">
@@ -986,20 +985,20 @@
         <v>3</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
@@ -1011,20 +1010,20 @@
         <v>4</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
@@ -1036,20 +1035,20 @@
         <v>5</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9" t="s">
@@ -1061,20 +1060,20 @@
         <v>6</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9" t="s">
@@ -1086,22 +1085,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9" t="s">
